--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>block name</t>
   </si>
   <si>
-    <t>block_0</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -101,16 +98,28 @@
     <t>bit_field_2_1</t>
   </si>
   <si>
-    <t>block_1</t>
-  </si>
-  <si>
     <t>base address</t>
   </si>
   <si>
     <t>0x00 - 0xff</t>
   </si>
   <si>
-    <t>0x100 - 0x1ff</t>
+    <t>sample_0</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>register_3</t>
+  </si>
+  <si>
+    <t>bit_field_3_0</t>
+  </si>
+  <si>
+    <t>sample_1</t>
+  </si>
+  <si>
+    <t>0x100 - 0x17f</t>
   </si>
 </sst>
 </file>
@@ -636,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -650,56 +659,56 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickTop="1">
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -710,32 +719,32 @@
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -744,39 +753,58 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="2:8">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1">
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -799,56 +827,56 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:8" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickTop="1">
       <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -859,32 +887,32 @@
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -893,19 +921,19 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
@@ -914,13 +942,13 @@
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>block name</t>
   </si>
@@ -120,6 +120,24 @@
   </si>
   <si>
     <t>0x100 - 0x17f</t>
+  </si>
+  <si>
+    <t>array dimension</t>
+  </si>
+  <si>
+    <t>0x10 - 0x1F</t>
+  </si>
+  <si>
+    <t>register_4</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>bit_field_4_0</t>
+  </si>
+  <si>
+    <t>bit_field_4_1</t>
   </si>
 </sst>
 </file>
@@ -144,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -326,11 +344,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -344,6 +401,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,16 +705,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -670,8 +730,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -679,132 +739,181 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickTop="1">
+    <row r="5" spans="2:9" ht="15.75" thickTop="1">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1">
-      <c r="B10" s="4" t="s">
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -813,16 +922,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="2" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="2:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -830,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -838,8 +947,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -847,113 +956,121 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="15.75" thickTop="1">
+    <row r="5" spans="2:9" ht="15.75" thickTop="1">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8">
+      <c r="H5" s="8">
         <v>0</v>
       </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8">
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="H6" s="1"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" thickBot="1">
+      <c r="H8" s="1"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>0</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>block name</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>bit_field_4_1</t>
+  </si>
+  <si>
+    <t>shadow index</t>
+  </si>
+  <si>
+    <t>shdow index</t>
   </si>
 </sst>
 </file>
@@ -705,16 +711,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I12"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="2" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -722,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -730,8 +736,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -742,22 +748,25 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickTop="1">
+    <row r="5" spans="2:10" ht="15.75" thickTop="1">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -765,37 +774,39 @@
         <v>10</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -803,21 +814,22 @@
         <v>18</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -825,37 +837,39 @@
         <v>22</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="13" t="s">
         <v>30</v>
       </c>
@@ -863,19 +877,20 @@
         <v>31</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -885,35 +900,37 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="2:9" ht="15.75" thickBot="1">
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>0</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,16 +939,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="9" width="15.7109375" customWidth="1"/>
+    <col min="2" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:10">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -939,7 +956,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -947,8 +964,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -959,22 +976,25 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.75" thickTop="1">
+    <row r="5" spans="2:10" ht="15.75" thickTop="1">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -982,37 +1002,39 @@
         <v>10</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="8">
+      <c r="I5" s="8">
         <v>0</v>
       </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1020,21 +1042,22 @@
         <v>18</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1042,35 +1065,37 @@
         <v>22</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" thickBot="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" thickBot="1">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>block name</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>shdow index</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>register_5</t>
+  </si>
+  <si>
+    <t>[2,4]</t>
+  </si>
+  <si>
+    <t>bit_field_5_0</t>
+  </si>
+  <si>
+    <t>bit_field_5_1</t>
+  </si>
+  <si>
+    <t>bit_field_2_0:1, bit_field_0_0, bit_field_0_1</t>
   </si>
 </sst>
 </file>
@@ -168,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -350,50 +368,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -407,9 +386,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,13 +693,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="10" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="10" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -870,25 +854,25 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
       <c r="B11" s="2" t="s">
@@ -913,24 +897,68 @@
       <c r="I11" s="1"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
+    <row r="12" spans="2:10">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishitani\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
   <si>
     <t>block name</t>
   </si>
@@ -161,18 +166,30 @@
     <t>bit_field_5_1</t>
   </si>
   <si>
-    <t>bit_field_2_0:1, bit_field_0_0, bit_field_0_1</t>
+    <t>rw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit_field_2_1:1, bit_field_0_0, bit_field_0_1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -401,6 +418,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -449,7 +469,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,9 +502,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -517,6 +554,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -697,14 +751,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="10" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="40.75" customWidth="1"/>
+    <col min="6" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +766,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -720,8 +774,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -750,7 +804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickTop="1">
+    <row r="5" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -773,7 +827,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -785,12 +839,14 @@
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -813,7 +869,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -834,7 +890,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -853,7 +909,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -874,7 +930,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -897,7 +953,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -916,7 +972,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1">
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
         <v>43</v>
       </c>
@@ -927,7 +983,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>11</v>
@@ -941,7 +997,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" thickBot="1">
+    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -961,6 +1017,7 @@
       <c r="J14" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -971,12 +1028,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="10" width="15.7109375" customWidth="1"/>
+    <col min="2" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1041,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -992,8 +1049,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1">
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1022,7 +1079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickTop="1">
+    <row r="5" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1045,7 +1102,7 @@
       </c>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1062,7 +1119,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1085,7 +1142,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1163,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1">
+    <row r="9" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1126,6 +1183,7 @@
       <c r="J9" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
   <si>
     <t>block name</t>
   </si>
@@ -171,6 +171,22 @@
   </si>
   <si>
     <t>bit_field_2_1:1, bit_field_0_0, bit_field_0_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>external</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x80-0xFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -389,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -409,6 +425,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -755,10 +773,10 @@
   <cols>
     <col min="2" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="40.75" customWidth="1"/>
-    <col min="6" max="10" width="15.75" customWidth="1"/>
+    <col min="6" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -774,8 +792,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -789,22 +807,25 @@
         <v>41</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -813,40 +834,42 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -855,21 +878,22 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -878,38 +902,40 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -918,19 +944,20 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -941,38 +968,40 @@
         <v>38</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
         <v>43</v>
       </c>
@@ -985,36 +1014,56 @@
       <c r="E13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="16" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="H14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1024,16 +1073,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="10" width="15.75" customWidth="1"/>
+    <col min="2" max="11" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1049,8 +1098,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1064,22 +1113,25 @@
         <v>42</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1088,38 +1140,40 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>0</v>
       </c>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J6" s="1"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1128,21 +1182,22 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1151,36 +1206,38 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>block name</t>
   </si>
@@ -182,19 +182,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>register_6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>true</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_6_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w0c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_6_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w1c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_6</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +242,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -219,7 +257,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -401,11 +439,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -427,6 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -765,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1047,23 +1128,67 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0</v>
+      </c>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C17" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>block name</t>
   </si>
@@ -1150,7 +1150,9 @@
       <c r="J15" s="20">
         <v>0</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
@@ -1170,7 +1172,9 @@
       <c r="J16" s="20">
         <v>0</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>block name</t>
   </si>
@@ -190,36 +190,68 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>[8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_6_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w0c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_6_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w1c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>register_7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_7_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w0s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_7_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w1s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_8</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_6_0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>w0c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_6_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>w1c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>register_6</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -846,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K17"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1133,19 +1165,19 @@
         <v>53</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="I15" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>57</v>
       </c>
       <c r="J15" s="20">
         <v>0</v>
@@ -1161,13 +1193,13 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="21" t="s">
+      <c r="I16" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="J16" s="20">
         <v>0</v>
@@ -1176,23 +1208,67 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="18" t="s">
+      <c r="C19" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
   <si>
     <t>block name</t>
   </si>
@@ -251,7 +251,39 @@
   </si>
   <si>
     <t>register_8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[31:16]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rwl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[15:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_8_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rwe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_9</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit_field_8_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x2C</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -878,7 +910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1252,23 +1284,71 @@
       </c>
       <c r="K18" s="22"/>
     </row>
-    <row r="19" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="18" t="s">
+      <c r="C21" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="6"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>block name</t>
   </si>
@@ -143,12 +143,6 @@
   </si>
   <si>
     <t>bit_field_4_1</t>
-  </si>
-  <si>
-    <t>shadow index</t>
-  </si>
-  <si>
-    <t>shdow index</t>
   </si>
   <si>
     <t>0x20</t>
@@ -170,7 +164,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>bit_field_2_1:1, bit_field_0_0, bit_field_0_1</t>
+    <t>0x80-0xFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_6_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w0c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_6_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w1c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[8]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_7_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w0s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_7_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>w1s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[31:16]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rwl</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[15:0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bit_field_8_1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rwe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>register_9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit_field_8_0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0x2C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>indirect: bit_field_2_1:1, bit_field_0_0, bit_field_0_1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -178,112 +276,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0x80-0xFF</t>
+    <t>type</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0x24</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_6_0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>w0c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_6_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>w1c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>register_6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0x28</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>register_7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[8]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_7_0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>w0s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_7_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>w1s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>register_8</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[31:16]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rwl</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[15:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bit_field_8_1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>rwe</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>register_9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bit_field_8_0</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>0x2C</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -546,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -567,7 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
@@ -910,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K21"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -918,10 +911,10 @@
   <cols>
     <col min="2" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="40.75" customWidth="1"/>
-    <col min="6" max="11" width="15.75" customWidth="1"/>
+    <col min="6" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -929,7 +922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>27</v>
       </c>
@@ -937,8 +930,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -949,28 +942,25 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -979,42 +969,40 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1023,22 +1011,21 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1047,40 +1034,38 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1089,20 +1074,19 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I10" s="1"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
@@ -1113,242 +1097,231 @@
         <v>38</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I11" s="1"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="13" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I13" s="1"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="13" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B19" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="20">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J16" s="20">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="20">
-        <v>0</v>
-      </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21" t="s">
+      <c r="C21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="21" t="s">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="20">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1358,16 +1331,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="11" width="15.75" customWidth="1"/>
+    <col min="2" max="10" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -1383,8 +1356,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1395,28 +1368,25 @@
         <v>35</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
@@ -1425,40 +1395,38 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I6" s="1"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1467,22 +1435,21 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1491,38 +1458,36 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6"/>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
